--- a/arduino/Sensors/IR/New/ir2.xlsx
+++ b/arduino/Sensors/IR/New/ir2.xlsx
@@ -14,13 +14,21 @@
   <sheets>
     <sheet name="ir2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>a=42009870, b=0.9599171, c=0.00006725586, d=-2.515755</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +162,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFA4A4A4"/>
+      <name val="Nunito"/>
     </font>
   </fonts>
   <fills count="33">
@@ -497,8 +510,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -705,11 +719,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397348456"/>
-        <c:axId val="397353944"/>
+        <c:axId val="563067216"/>
+        <c:axId val="563068784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397348456"/>
+        <c:axId val="563067216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,12 +780,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397353944"/>
+        <c:crossAx val="563068784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397353944"/>
+        <c:axId val="563068784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397348456"/>
+        <c:crossAx val="563067216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1025,11 +1039,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397351592"/>
-        <c:axId val="397351200"/>
+        <c:axId val="563062120"/>
+        <c:axId val="563059768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397351592"/>
+        <c:axId val="563062120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,12 +1100,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397351200"/>
+        <c:crossAx val="563059768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397351200"/>
+        <c:axId val="563059768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397351592"/>
+        <c:crossAx val="563062120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2637,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2700,15 +2714,15 @@
         <v>278.64</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="0">1/(C3+$D$11)</f>
+        <f t="shared" ref="E3:E4" si="0">1/(C3+$D$11)</f>
         <v>0.05</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="1">$K$3*D3+$K$2</f>
+        <f t="shared" ref="F3:F8" si="1">$K$3*D3+$K$2</f>
         <v>5.3166146850887018E-2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G9" si="2">1/F3-$D$11</f>
+        <f t="shared" ref="G3:G4" si="2">1/F3-$D$11</f>
         <v>18.808961326549774</v>
       </c>
       <c r="K3">
@@ -2863,6 +2877,67 @@
         <v>6000</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>485.32</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>278.64</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>203.08</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>170.16</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>119.64</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>46.24</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>14.84</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
     </row>
